--- a/TestCaseDriverSheet.xlsx
+++ b/TestCaseDriverSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Frameworks/Alchemy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Frameworks/GitHub_ProjectAutomatedTests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE97544A-4F3C-7043-8514-F153F752AE79}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48419373-CA7B-CA42-95F5-4ACE9E93FDF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27880" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseInfo" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>Parallel</t>
   </si>
@@ -201,6 +201,36 @@
   </si>
   <si>
     <t>Test7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -521,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -790,22 +820,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,15 +852,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="b">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -839,7 +869,74 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 D2" xr:uid="{34DF6E85-A298-C44A-A42D-80BAE6C5E18F}">
+      <formula1>$J$3:$J$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{AF7C283E-36AC-BC40-8871-F2A97327C7F6}">
+      <formula1>$K$3:$K$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{B6112203-555E-5547-BD2C-FF080D78DFC0}">
+      <formula1>$K$3:$K$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestCaseDriverSheet.xlsx
+++ b/TestCaseDriverSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Frameworks/GitHub_ProjectAutomatedTests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48419373-CA7B-CA42-95F5-4ACE9E93FDF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A886DF-6EA2-4144-B6A7-9C7E9AAED1E3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27880" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27820" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseInfo" sheetId="2" r:id="rId1"/>
@@ -110,12 +110,6 @@
     <t>Test6</t>
   </si>
   <si>
-    <t>ignoretestfeatureA2</t>
-  </si>
-  <si>
-    <t>testfeatureA1</t>
-  </si>
-  <si>
     <t>com.api.tests.module1.Module1Test</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>ignore</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,22 +590,22 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -616,25 +616,25 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
         <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -642,22 +642,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -665,25 +665,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -691,10 +691,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -706,7 +706,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -714,10 +714,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -737,22 +737,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -760,57 +760,57 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +823,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -857,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -882,47 +882,47 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -957,13 +957,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
